--- a/LIACSserver/dashboard/excelfiles/professors_promotion_type.xlsx
+++ b/LIACSserver/dashboard/excelfiles/professors_promotion_type.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,10 +808,640 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>13</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>17</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>11</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>15</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>17</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Promotoe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>11</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>2001</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D46" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Promotie</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
         <v>21</v>
       </c>
     </row>
